--- a/MDT/RollenBeheer.xlsx
+++ b/MDT/RollenBeheer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="132" yWindow="480" windowWidth="22716" windowHeight="9204" activeTab="1"/>
+    <workbookView xWindow="132" yWindow="480" windowWidth="22716" windowHeight="9204"/>
   </bookViews>
   <sheets>
     <sheet name="Certificaat" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>Certificaat</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>Pas</t>
-  </si>
-  <si>
-    <t>ProcID</t>
   </si>
   <si>
     <t>[Certificaat]</t>
@@ -427,22 +424,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -468,7 +465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -481,16 +478,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
         <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -506,24 +503,24 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -548,10 +545,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -564,18 +561,18 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -588,24 +585,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
